--- a/data/VOC Monthly Infographic - Hyperlinks_peter_soguero.xlsx
+++ b/data/VOC Monthly Infographic - Hyperlinks_peter_soguero.xlsx
@@ -541,12 +541,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UA Newark Club C74</t>
+          <t>IMC Chicago</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>58008</t>
+          <t>64203</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -559,7 +559,7 @@
         <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>4.46</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="5">
@@ -570,12 +570,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IMC Chicago</t>
+          <t>UA Newark Club C74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>64203</t>
+          <t>58008</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -588,7 +588,7 @@
         <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>1.88</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="6">
@@ -628,12 +628,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Becton-Dickinson Cockeysville</t>
+          <t>UA Newark Polaris</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6515</t>
+          <t>58006</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -646,7 +646,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="8">
@@ -657,12 +657,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UA Newark Polaris</t>
+          <t>Becton-Dickinson Cockeysville</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>58006</t>
+          <t>6515</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -675,7 +675,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="9">
@@ -802,12 +802,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Latham &amp; Watkins</t>
+          <t>WilmerHale - NYC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>53079</t>
+          <t>26218</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -820,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>4.55</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="14">
@@ -831,12 +831,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WilmerHale - NYC</t>
+          <t>Latham &amp; Watkins</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26218</t>
+          <t>53079</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -849,7 +849,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>4.93</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="15">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UA Chicago Club B18</t>
+          <t>Building &amp; Land The Point Cafe</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>58026</t>
+          <t>30596</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1023,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>3.86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Building &amp; Land The Point Cafe</t>
+          <t>Kirkland &amp; Ellis LLP Café</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>30596</t>
+          <t>44528</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1052,7 +1052,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="22">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kirkland &amp; Ellis LLP Café</t>
+          <t>UA Chicago Club B18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>44528</t>
+          <t>58026</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1081,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>3.93</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="23">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pepsi Bottling - NC</t>
+          <t>Becton-Dickinson Franklin Lake</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13563</t>
+          <t>13424</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1110,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="24">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Becton-Dickinson Franklin Lake</t>
+          <t>Pepsi Bottling - NC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13424</t>
+          <t>13563</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1139,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>4.71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Northwestern Kellogg Global Hub</t>
+          <t>Becton-Dickinson Sparks</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>44783</t>
+          <t>6521</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="26">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Becton-Dickinson Sparks</t>
+          <t>320 Park Avenue Grill</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6521</t>
+          <t>57241</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>320 Park Avenue Grill</t>
+          <t>Northwestern Kellogg Global Hub</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>57241</t>
+          <t>44783</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1226,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="28">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MasterCard MO</t>
+          <t>Katten Muchin Rosenman LLP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10154</t>
+          <t>57329</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>320 Park Avenue Bistro</t>
+          <t>MasterCard MO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>58039</t>
+          <t>10154</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Katten Muchin Rosenman LLP</t>
+          <t>320 Park Avenue Bistro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>57329</t>
+          <t>58039</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="37">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Diageo 3 World Trade Center</t>
+          <t>Shearman &amp; Sterling - NYC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>29542</t>
+          <t>26276</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1527,12 +1527,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Shearman &amp; Sterling - NYC</t>
+          <t>Diageo 3 World Trade Center</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>26276</t>
+          <t>29542</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Becton-Dickinson Vernon Hills</t>
+          <t>Becton-Dickinson SD Pacific Mesa</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>27781</t>
+          <t>41993</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Simpson Thacher &amp; Bartlett</t>
+          <t xml:space="preserve">Olin Bauer Brew </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>50576</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Becton-Dickinson Milpitas</t>
+          <t>Becton-Dickinson Vernon Hills</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>65511</t>
+          <t>27781</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Katten Muchin Rosenman LLP Chicago</t>
+          <t>Becton-Dickinson - Durham NC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>57863</t>
+          <t>23666</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Becton-Dickinson - Durham NC</t>
+          <t>Fried Frank</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23666</t>
+          <t>63631</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AM Holdings Cafe Main and Elm</t>
+          <t>Simpson Thacher &amp; Bartlett</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>58911</t>
+          <t>1274</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fried Frank</t>
+          <t>Becton-Dickinson Milpitas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>63631</t>
+          <t>65511</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1748,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Becton-Dickinson Salt Lake City</t>
+          <t>Diageo Miami</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>61987</t>
+          <t>29540</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Diageo Miami</t>
+          <t>Chicago Bears Football Club</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>29540</t>
+          <t>27847</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Panasonic (PNA)</t>
+          <t>MasterCard NY</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>27790</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Freshfields</t>
+          <t>AM Holdings Cafe Main and Elm</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>64774</t>
+          <t>58911</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1875,12 +1875,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MasterCard NY</t>
+          <t>Panasonic (PNA)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>27790</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1904,12 +1904,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Becton-Dickinson SD Pacific Mesa</t>
+          <t>Becton-Dickinson Salt Lake City</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>41993</t>
+          <t>61987</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Olin Bauer Brew </t>
+          <t>Katten Muchin Rosenman LLP Chicago</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>50576</t>
+          <t>57863</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1962,12 +1962,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chicago Bears Football Club</t>
+          <t>Freshfields</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>27847</t>
+          <t>64774</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="54">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>320 Park Avenue Lobby Café</t>
+          <t>MasterCard 150</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>58037</t>
+          <t>56634</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Savoy Club</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>62042</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">University School    </t>
+          <t>FLIK Lounge JFK</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>63664</t>
+          <t>61523</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kirkland &amp; Ellis NY Coffee Bar</t>
+          <t>Diageo Toronto</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>65269</t>
+          <t>23122</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2099,12 +2099,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PepsiCo Research Center</t>
+          <t>RXR Plaza - Cafe</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>1691</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Savoy Club</t>
+          <t>IMC The Colo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>62042</t>
+          <t>64203B</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Diageo Stamford</t>
+          <t>Winston &amp; Strawn</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>29543</t>
+          <t>46250</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2180,12 +2180,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Reed Smith - Chicago</t>
+          <t>Diageo Chicago</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>44791</t>
+          <t>29538</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Davis Polk &amp; Wardwell LLP</t>
+          <t>Arnold &amp; Porter Cafe</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>29283</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PepsiCo Headquarter</t>
+          <t>Becton-Dickinson Covington</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>63898</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MasterCard 150</t>
+          <t>Davis Polk &amp; Wardwell LLP</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>56634</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Arnold &amp; Porter Cafe</t>
+          <t>Kirkland Chicago Wolf Point</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>29283</t>
+          <t>65037</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>Morgan Lewis &amp; Bockius LLP NY</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>63106</t>
+          <t>41319</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2342,12 +2342,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
+          <t>Jones Day Chicago</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>58309</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cooley LLP Chicago</t>
+          <t>Dock 72</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>61666</t>
+          <t>51025</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RXR Plaza - Cafe</t>
+          <t>Medimmune Frederick</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>60031</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FLIK Lounge JFK</t>
+          <t>320 Park Avenue Lounge</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>61523</t>
+          <t>58040</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2450,12 +2450,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Medimmune Frederick</t>
+          <t>Cafe 45 Glover</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>60031</t>
+          <t>52282</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2477,12 +2477,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>320 Park Avenue Lounge</t>
+          <t>Kirkland &amp; Ellis NY Coffee Bar</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>58040</t>
+          <t>65269</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2504,12 +2504,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ropes &amp; Gray - NY</t>
+          <t>Rudin 3TS Café</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>17951</t>
+          <t>65219</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Becton-Dickinson San Jose</t>
+          <t>UA Chicago Club C10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>21908</t>
+          <t>61211</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2558,12 +2558,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Dock 72</t>
+          <t>Charlotte FC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>51025</t>
+          <t>63106</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rudin 3TS Café</t>
+          <t>Cooley LLP Chicago</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>65219</t>
+          <t>61666</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Diageo Plainfield</t>
+          <t>Olin Bauer Cafe</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>43149</t>
+          <t>50575</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>320 Park Avenue Catering</t>
+          <t>Reed Smith - Chicago</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>58041</t>
+          <t>44791</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Becton Dickinson Tempe</t>
+          <t>Becton-Dickinson Sandy</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>51017</t>
+          <t>23579</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2693,12 +2693,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dechert LLP</t>
+          <t>Ropes &amp; Gray - NY</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>19764</t>
+          <t>17951</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Diageo Chicago</t>
+          <t xml:space="preserve">University School    </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>29538</t>
+          <t>63664</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Building &amp; Land 901 Main Street</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>18316</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Winston &amp; Strawn</t>
+          <t>Diageo Stamford</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>46250</t>
+          <t>29543</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2828,12 +2828,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Diageo Toronto</t>
+          <t>Archdiocese of New York</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>23122</t>
+          <t>25785</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Olin Bauer Cafe</t>
+          <t>PepsiCo Headquarter</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>50575</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kirkland Chicago Wolf Point</t>
+          <t>Diageo Plainfield</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>65037</t>
+          <t>43149</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2909,12 +2909,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Morgan Lewis &amp; Bockius LLP NY</t>
+          <t>320 Park Avenue Catering</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>41319</t>
+          <t>58041</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Archdiocese of New York</t>
+          <t>Cravath Swaine &amp; Moore LLP</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>25785</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Covington &amp; Burling LLP - Cafe</t>
+          <t>Building &amp; Land 901 Main Street</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>18313</t>
+          <t>18316</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2990,12 +2990,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>UA Chicago Club C10</t>
+          <t>Covington &amp; Burling LLP - Cafe</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>61211</t>
+          <t>18313</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3017,12 +3017,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Becton-Dickinson Sandy</t>
+          <t>Becton-Dickinson San Jose</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>23579</t>
+          <t>21908</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3044,12 +3044,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IMC The Colo</t>
+          <t>320 Park Avenue Lobby Café</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>64203B</t>
+          <t>58037</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3071,12 +3071,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jones Day Chicago</t>
+          <t>PepsiCo Research Center</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>58309</t>
+          <t>1229</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3098,12 +3098,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Becton-Dickinson Covington</t>
+          <t>Becton Dickinson Tempe</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>63898</t>
+          <t>51017</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3199,17 +3199,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>That's incredible, we love when we have exceeded all of your expectations! What could we do to make your experience even better? (Optional)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emmanuel seems miserable,  not friendly. ,can barely hear him utter a word and then its not audible.   He could smile occasionally </t>
+          <t>Stay open longer!</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3226,12 +3226,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>66738</t>
+          <t>26831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cadwalader</t>
+          <t>AstraZeneca Gaithersburg</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -3239,17 +3239,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The coffee cups tend to melt or leak at the seems.</t>
+          <t xml:space="preserve">Emmanuel seems miserable,  not friendly. ,can barely hear him utter a word and then its not audible.   He could smile occasionally </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3266,12 +3266,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>64203</t>
+          <t>66738</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IMC Chicago</t>
+          <t>Cadwalader</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">The skirt steak was super tough and barely edible. </t>
+          <t>The coffee cups tend to melt or leak at the seems.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6521</t>
+          <t>64203</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Becton-Dickinson Sparks</t>
+          <t>IMC Chicago</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -3319,17 +3319,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>That's incredible, we love when we have exceeded all of your expectations! What could we do to make your experience even better? (Optional)</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stay open longer. </t>
+          <t xml:space="preserve">The skirt steak was super tough and barely edible. </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26831</t>
+          <t>66738</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AstraZeneca Gaithersburg</t>
+          <t>Cadwalader</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -3402,12 +3402,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>That's incredible, we love when we have exceeded all of your expectations! What could we do to make your experience even better? (Optional)</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stay open longer!</t>
+          <t xml:space="preserve">Coffee cups “melt” causing leaks at the seams of the cup. </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3429,12 +3429,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>66738</t>
+          <t>6521</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cadwalader</t>
+          <t>Becton-Dickinson Sparks</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -3442,12 +3442,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>That's incredible, we love when we have exceeded all of your expectations! What could we do to make your experience even better? (Optional)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coffee cups “melt” causing leaks at the seams of the cup. </t>
+          <t xml:space="preserve">Stay open longer. </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>58008</t>
+          <t>41245</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UA Newark Club C74</t>
+          <t>White &amp; Case</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -3522,12 +3522,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>You said quality of facility and furniture could be improved. In what areas would you like to see quality improve? Select up to three. - Other, please specify - Text</t>
+          <t>You said variety could be improved. In what areas would you like to see variety improve?  Select up to three - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Need more seats</t>
+          <t>Less pork/sausage options</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>41245</t>
+          <t>58008</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>White &amp; Case</t>
+          <t>UA Newark Club C74</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -3562,12 +3562,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>You said variety could be improved. In what areas would you like to see variety improve?  Select up to three - Other, please specify - Text</t>
+          <t>You said quality of facility and furniture could be improved. In what areas would you like to see quality improve? Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Less pork/sausage options</t>
+          <t>Need more seats</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3670,12 +3670,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>64203</t>
+          <t>26831</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IMC Chicago</t>
+          <t>AstraZeneca Gaithersburg</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">I grabbed a hummus pack from the refrigerator and it was expired. I did not even think to look at the expiration date and ended up eating mold that was inside the hummus. This is unacceptable. </t>
+          <t>Diet Mountain Dew not in stock</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">I found a bug in my salad </t>
+          <t xml:space="preserve">I grabbed a hummus pack from the refrigerator and it was expired. I did not even think to look at the expiration date and ended up eating mold that was inside the hummus. This is unacceptable. </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3803,17 +3803,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>You said variety could be improved. In what areas would you like to see variety improve?  Select up to three - Other, please specify - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>It seems like there is no longer a warm protein on the salad bar.  The cold protein is a poor substitute and is borderline inedible.  Overall, the entree selections are a bit strange (e.g. jackfruit carnitas, pasta with butternut squash sauce) and there is way too much turkey.</t>
+          <t xml:space="preserve">I found a bug in my salad </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26831</t>
+          <t>64203</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AstraZeneca Gaithersburg</t>
+          <t>IMC Chicago</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -3843,17 +3843,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>You said variety could be improved. In what areas would you like to see variety improve?  Select up to three - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Diet Mountain Dew not in stock</t>
+          <t>It seems like there is no longer a warm protein on the salad bar.  The cold protein is a poor substitute and is borderline inedible.  Overall, the entree selections are a bit strange (e.g. jackfruit carnitas, pasta with butternut squash sauce) and there is way too much turkey.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3883,17 +3883,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lack of hot protein in salad bar</t>
+          <t>I got the Pad Thai today and was very disappointed by how far off the mark it was. It did not use the right kind of rice noodles or the right kind of sauce for the dish. The rice noodles were also overcooked. I ended up getting the lasagna instead which was good.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3950,12 +3950,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>64203</t>
+          <t>58025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IMC Chicago</t>
+          <t>UA Chicago Polaris</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -3963,17 +3963,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>You said environment could be improved. In what areas would you like to see environment improve? Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>I got the Pad Thai today and was very disappointed by how far off the mark it was. It did not use the right kind of rice noodles or the right kind of sauce for the dish. The rice noodles were also overcooked. I ended up getting the lasagna instead which was good.</t>
+          <t>It was quite crowded and hard to find a seat</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3990,12 +3990,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>58025</t>
+          <t>64203</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UA Chicago Polaris</t>
+          <t>IMC Chicago</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -4003,17 +4003,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>You said environment could be improved. In what areas would you like to see environment improve? Select up to three. - Other, please specify - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>It was quite crowded and hard to find a seat</t>
+          <t xml:space="preserve">The Pad Thai was very inedible and should not have been served. </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4048,12 +4048,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Pad Thai was very inedible and should not have been served. </t>
+          <t>Lack of hot protein in salad bar. Often people cannot eat either entrees and rely on the salmon or chicken to meet protein needs. Please bring it back.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lack of hot protein in salad bar. Often people cannot eat either entrees and rely on the salmon or chicken to meet protein needs. Please bring it back.</t>
+          <t>Lack of hot protein in salad bar</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4163,174 +4163,174 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+(Select up to three) - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>The chicken (too dry)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>58029</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>UA Chicago Club F8</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>You said variety of food and beverage offerings could be improve. In what areas would you like to see variety improve? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kitchen is closed very limited food menu</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>64203</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>IMC Chicago</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>It seems the daily protein option placed opposite the salad bar has been removed (used to be chicken most days, with occasional salmon). Please bring this back.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>64203</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>IMC Chicago</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>You said dietary accommodations could be improved. Of the below dietary accommodations, which offerings could be improved? Select all that apply - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>There is only vegan, or meat, and vegan does not provide enough sustenance.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>53079</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Latham &amp; Watkins</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Too much sodium</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>53079</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Latham &amp; Watkins</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>The chicken (too dry)</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>64203</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>IMC Chicago</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>It seems the daily protein option placed opposite the salad bar has been removed (used to be chicken most days, with occasional salmon). Please bring this back.</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>64203</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>IMC Chicago</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>You said dietary accommodations could be improved. Of the below dietary accommodations, which offerings could be improved? Select all that apply - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>There is only vegan, or meat, and vegan does not provide enough sustenance.</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>58029</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>UA Chicago Club F8</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>You said variety of food and beverage offerings could be improve. In what areas would you like to see variety improve? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kitchen is closed very limited food menu</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4352,12 +4352,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>58029</t>
+          <t>66738</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>UA Chicago Club F8</t>
+          <t>Cadwalader</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -4365,139 +4365,139 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I ordered hash brown potatoes and paid for them did not receive them. My toast was grilled did not taste good please invest in a good old fashioned toaster I promise it’s what the people want </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>58029</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>UA Chicago Club F8</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>It's not like us to miss the mark. We would love to make this right. 
 Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t xml:space="preserve">I was treated so rudely by him and I will avoid that club with him.  He was rude as can be until I tipped him and then he offered me free premium drinks if I gave him a positive review.  That’s deceiving and not the true color of his character. </t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>12953</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Jones Day - NYC</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>You said order accuracy could be improved. What was incorrect about your most recent order? Select all that apply - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Ordered omwlwrrw yesterday with xhhwaw answers mushrooms and it Lzo contains spinach which i sis not oeder.  Today ordered 2 aisha od bacon and received only 2 pieces qhwn waxh order should have been 3 pieces.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>58026</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>UA Chicago Club B18</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D34" s="2" t="n">
         <v>45588</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>It's not like us to miss the mark. We would love to make this right. 
 Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t xml:space="preserve">It’s interesting how you frame that you don’t miss the mark. Ppl that work for you don’t miss the mark( however, United club as an entity definitely misses the mark. From how you treat premier members (you’re the only club in the alliance that requires gold members to purchase your pass) to food—poor choices and highly processed food. </t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>2.00</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>12953</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Jones Day - NYC</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>You said order accuracy could be improved. What was incorrect about your most recent order? Select all that apply - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Ordered omwlwrrw yesterday with xhhwaw answers mushrooms and it Lzo contains spinach which i sis not oeder.  Today ordered 2 aisha od bacon and received only 2 pieces qhwn waxh order should have been 3 pieces.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>66738</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Cadwalader</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I ordered hash brown potatoes and paid for them did not receive them. My toast was grilled did not taste good please invest in a good old fashioned toaster I promise it’s what the people want </t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1.67</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>The general decline in food quality over the past couple of months has been quite noticeable. For a bit Flik did recover so I didn't send any feedback. But this week on Monday the potatoes were cooked improperly (closer to raw then cooked). And on Tuesday the plantains were extremely hard (won't even change shape using the full force of two fingers squeezing).</t>
+          <t>Out of hot food options by 12</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -4567,12 +4567,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Out of hot food options by 12</t>
+          <t>The general decline in food quality over the past couple of months has been quite noticeable. For a bit Flik did recover so I didn't send any feedback. But this week on Monday the potatoes were cooked improperly (closer to raw then cooked). And on Tuesday the plantains were extremely hard (won't even change shape using the full force of two fingers squeezing).</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -4594,12 +4594,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>58025</t>
+          <t>64203</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>UA Chicago Polaris</t>
+          <t>IMC Chicago</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -4607,17 +4607,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>You said cleanliness could be improved. In what areas would you like to see cleanliness improve? Select up to three. - Other, please specify: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>There was a lot of overcrowding in the seating areas and a lot of food debris on the counters between seats and in the gaps between seat cushions and armrests.</t>
+          <t xml:space="preserve">Lunch service is from 11-1 and 3 of the past 5 times I have gone to have a hot lunch at 12, significant portions of the option are out : dumplings, protein and today was sauce for the meatballs. I know I can find other options but when the portions are controlled why are you running out of food an hour into a 2 hour service? </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4652,7 +4652,8 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lunch service is from 11-1 and 3 of the past 5 times I have gone to have a hot lunch at 12, significant portions of the option are out : dumplings, protein and today was sauce for the meatballs. I know I can find other options but when the portions are controlled why are you running out of food an hour into a 2 hour service? </t>
+          <t>The vinaigrette salad dressing is always separated and does not seem to be stirred up before it’s put out; can you either please emulsify the dressing or provide something to shake or stir the dressing as needed. 
+Also the salad toppings are getting stranger… pickled ginger is not a salad topping</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -4674,12 +4675,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>64203</t>
+          <t>58025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>IMC Chicago</t>
+          <t>UA Chicago Polaris</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -4687,18 +4688,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>You said cleanliness could be improved. In what areas would you like to see cleanliness improve? Select up to three. - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>The vinaigrette salad dressing is always separated and does not seem to be stirred up before it’s put out; can you either please emulsify the dressing or provide something to shake or stir the dressing as needed. 
-Also the salad toppings are getting stranger… pickled ginger is not a salad topping</t>
+          <t>There was a lot of overcrowding in the seating areas and a lot of food debris on the counters between seats and in the gaps between seat cushions and armrests.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4755,12 +4755,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>58006</t>
+          <t>58025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>UA Newark Polaris</t>
+          <t>UA Chicago Polaris</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -4768,617 +4768,617 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>You said value of food and beverage could be improved. In what areas would you like to see value  improve? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No dining room!</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>64203</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>IMC Chicago</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Potatoes, sweet potatoes and chickpeas were drastically undercooked in the paneer entree to the point of not being edible</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>64203</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>IMC Chicago</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Please switch back to using the old syrup/honey dispensers. The new ones with stoppers are harder to use and drip syrup/honey on the counter and the user's fingers.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>58006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>UA Newark Polaris</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There was a man obviously jerking of in the quiet room when all was dark. I am a woman and was terrified. I put my light on and ran out of there. I told the woman at the desk and she apologized profusely. </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>58025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>UA Chicago Polaris</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As first class passenger, disappointed that there was a 30min wait for dining place and no free seating so I had to go to B18 lounge first and then return. </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>64203</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>IMC Chicago</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Potatoes, sweet potatoes and chickpeas were drastically undercooked in the paneer entree to the point of not being edible</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>58007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>UA Newark NTA</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>I frequent the United Club in Newark terminal A quite often.. it seems that after 7pm the soda machine runs out of ice and no one cares to replace it. The carbonation in the soda never gets replaced after that time either, leaving drinks stale. Also, if you don’t get a breakfast sandwich before 11:00am you’re out of luck and there will be no more made.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>58006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>UA Newark Polaris</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>We are sorry your experience did not meet your expectations.
 Please provide us some additional insight to why you had a poor experience - Other - Text</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>The quiet rooms there are as a man jerking off I was terrified and ran out I am shaking</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>64203</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>IMC Chicago</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D49" s="2" t="n">
         <v>45586</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Potatoes, sweet potatoes and chickpeas were drastically undercooked in the paneer entree to the point of not being edible</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>64203</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>IMC Chicago</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Please switch back to using the old syrup/honey dispensers. The new ones with stoppers are harder to use and drip syrup/honey on the counter and the user's fingers.</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I had the paneer jalfrezi and aloo mattar today. The paneer was not up to temperature and the potatoes were very undercooked. The peas also weren't the usual type that are in the dish (sugar snap peas vs standard peas)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>58007</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>UA Newark NTA</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45585</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>You said environment could be improved. In what areas would you like to see environment improve? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Non-alcoholic beer should be free.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>58025</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>UA Chicago Polaris</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>You said value of food and beverage could be improved. In what areas would you like to see value  improve? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>No dining room!</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="D51" s="2" t="n">
+        <v>45585</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Some of the armchairs look a bit worn. </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>58006</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>UA Newark Polaris</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45585</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>It's not like us to miss the mark. We would love to make this right. 
 Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There was a man obviously jerking of in the quiet room when all was dark. I am a woman and was terrified. I put my light on and ran out of there. I told the woman at the desk and she apologized profusely. </t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bathrooms were terrible
+Out of tp in stalls, long wait, toilets not clean</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45585</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>It's not like us to miss the mark. We would love to make this right. 
 Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As first class passenger, disappointed that there was a 30min wait for dining place and no free seating so I had to go to B18 lounge first and then return. </t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Same chicken for the last year.  Please vary the menu.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>64203</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>IMC Chicago</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>I had the paneer jalfrezi and aloo mattar today. The paneer was not up to temperature and the potatoes were very undercooked. The peas also weren't the usual type that are in the dish (sugar snap peas vs standard peas)</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>58025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>UA Chicago Polaris</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45584</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Restrict lounge usage. Way too crowded. Ban upgraded passengers and Lufthansa and ANA passengers. </t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>58025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>UA Chicago Polaris</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I realize the lounge is being remodeled but it was completely packed.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>64203</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>IMC Chicago</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Potatoes, sweet potatoes and chickpeas were drastically undercooked in the paneer entree to the point of not being edible</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>58007</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>UA Newark NTA</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>58025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>UA Chicago Polaris</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>It's not like us to miss the mark. We would love to make this right. 
 Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I frequent the United Club in Newark terminal A quite often.. it seems that after 7pm the soda machine runs out of ice and no one cares to replace it. The carbonation in the soda never gets replaced after that time either, leaving drinks stale. Also, if you don’t get a breakfast sandwich before 11:00am you’re out of luck and there will be no more made.</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>45585</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Same chicken for the last year.  Please vary the menu.</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>45585</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Some of the armchairs look a bit worn. </t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>58007</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>UA Newark NTA</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>45585</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>You said environment could be improved. In what areas would you like to see environment improve? Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Non-alcoholic beer should be free.</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>45585</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Bathrooms were terrible
-Out of tp in stalls, long wait, toilets not clean</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>45584</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Restrict lounge usage. Way too crowded. Ban upgraded passengers and Lufthansa and ANA passengers. </t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I realize the lounge is being remodeled but it was completely packed.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>1) USB porta aren’ t working, I’d recomendo usb-c (because all industry are shortinho to usb-c)
@@ -5404,12 +5404,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>66738</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cleary Gottlieb - NYC</t>
+          <t>Cadwalader</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
@@ -5417,12 +5417,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">See comment. </t>
+          <t xml:space="preserve">Explained in previous screen. </t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5457,17 +5457,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Explained in previous screen. </t>
+          <t xml:space="preserve">You used to offer bacon as a meat, and I really love BLTs but I can’t order one with the current order process </t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>58008</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>UA Newark Club C74</t>
+          <t>Cleary Gottlieb - NYC</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
@@ -5497,17 +5497,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Play music over dead air alllll day! </t>
+          <t xml:space="preserve">See comment. </t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -5524,187 +5524,187 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>66738</t>
+          <t>29540</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cadwalader</t>
+          <t>Diageo Miami</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
         <v>45582</v>
       </c>
       <c r="E60" t="inlineStr">
-        <is>
-          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You used to offer bacon as a meat, and I really love BLTs but I can’t order one with the current order process </t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>58006</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>UA Newark Polaris</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>45582</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Needed to scan and forward a document; no equipment available for that. I don’t need it often, but would’ve helped today </t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1274</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Simpson Thacher &amp; Bartlett</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>45582</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sandwich station does not use sanitary food prep methods. Sandwiches are made on dirty counter instead of foil, dirty knife is used to cut everything, gloves aren’t changed. Given potential contamination from deli meats and allergy concerns this should be remedied. Knifes should be sanitized between orders, gloves changed and foil used instead of making sandwiches on dirty counter. This has been relayed in person but no changes have been made.</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>45582</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Siting sideways to eat wasn’t the easiest</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>29540</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Diageo Miami</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>45582</v>
-      </c>
-      <c r="E64" t="inlineStr">
         <is>
           <t>We want to make sure your experience with us is
 a good one. Is there anything that needs to be improved about your
 experience? (select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Open at 4pm</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Play music over dead air alllll day! </t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>66738</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Cadwalader</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yesterday I ordered the special it was supposed to be a black bean burger but as soon as I picked it up everything  fell out in a mushy consistency. I tried the impossible burger the day before and it was very good. </t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Simpson Thacher &amp; Bartlett</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sandwich station does not use sanitary food prep methods. Sandwiches are made on dirty counter instead of foil, dirty knife is used to cut everything, gloves aren’t changed. Given potential contamination from deli meats and allergy concerns this should be remedied. Knifes should be sanitized between orders, gloves changed and foil used instead of making sandwiches on dirty counter. This has been relayed in person but no changes have been made.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>20342</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Hughes Hubbard &amp; Reed Cafe</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Open at 4pm</t>
+          <t>No peanut butter cookies</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5766,12 +5766,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>20342</t>
+          <t>58025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hughes Hubbard &amp; Reed Cafe</t>
+          <t>UA Chicago Polaris</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
@@ -5779,12 +5779,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>No peanut butter cookies</t>
+          <t>Siting sideways to eat wasn’t the easiest</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5806,12 +5806,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>66738</t>
+          <t>46270</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cadwalader</t>
+          <t>Milbank</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
@@ -5819,17 +5819,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
+          <t>You said order accuracy could be improved. What was incorrect about your most recent order? Select all that apply - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yesterday I ordered the special it was supposed to be a black bean burger but as soon as I picked it up everything  fell out in a mushy consistency. I tried the impossible burger the day before and it was very good. </t>
+          <t xml:space="preserve">The wrap was poorly put together </t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>46270</t>
+          <t>58006</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Milbank</t>
+          <t>UA Newark Polaris</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>You said order accuracy could be improved. What was incorrect about your most recent order? Select all that apply - Other, please specify - Text</t>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">The wrap was poorly put together </t>
+          <t xml:space="preserve">Needed to scan and forward a document; no equipment available for that. I don’t need it often, but would’ve helped today </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>66738</t>
+          <t>58027</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cadwalader</t>
+          <t>UA Chicago Club B6</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
@@ -6059,12 +6059,13 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
+          <t>We are sorry your experience did not meet your expectations.
+Please provide us some additional insight to why you had a poor experience - Other - Text</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">One time we got the wrong fries. Another time we got the wrong type of bread. </t>
+          <t>Food, appearance, bar offerings</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6086,12 +6087,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>58027</t>
+          <t>58025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>UA Chicago Club B6</t>
+          <t>UA Chicago Polaris</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
@@ -6099,2190 +6100,2190 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It’s cold and outdated and not enough seats and nowhere to lay down. Lounges in other countries are much nicer. This lounge is average, nice, but doesn’t have a wow factor. Food options were sub par. Very crowded. Check out Qatar Airways lounges as an example of what could be possible in the USA with some imagination and will power. </t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>58025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>UA Chicago Polaris</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>You said environment could be improved. In what areas would you like to see environment improve? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It’s freezing in here. </t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>58027</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>UA Chicago Club B6</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>You said variety of food and beverage offerings could be improve. In what areas would you like to see variety improve? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>bring back Budweiser/ Michelob. The amount we pay, the least you could do is offer Bud or Mich Ultra</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>66738</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Cadwalader</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One time we got the wrong fries. Another time we got the wrong type of bread. </t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>66738</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cadwalader</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>We want to make sure your mobile experience is a good one. What could be improved about the mobile app ordering experience? - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Have a main category for sides. Prices are kind of high for certain things like a breakfast sandwich. Salad size is small compared to places near by. </t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>64203</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>IMC Chicago</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Why are core powers no longer stocked on floor 41 in the morning? They seem to only be stocked during trading hours now, which makes it unreasonable for most of the company to ever get one.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>58025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>UA Chicago Polaris</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>You said staff friendliness could be improved. In what areas would you like to see staff friendliness improve? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Didn’t really talk or greet me. </t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>66738</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cadwalader</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I ordered the black bean burger because it was the special but it was not even a burger it was a bunch of mush the only covered half the bun it was definitely not worth it. I had the impossible burger yesterday that was very good and definitely worth it. </t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>44783</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Northwestern Kellogg Global Hub</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They are having some issues attending to many people at coffee shop </t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>66738</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cadwalader</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Already wrote what happened on the previous screen. </t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>44783</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Northwestern Kellogg Global Hub</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>lack of variety, excessive prices</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Cleary Gottlieb - NYC</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Please make the action station more vegetarian friendly, please try keeping a veg protein/veg meal option everyday. The number of vegan/vegetarian people have this complaint is enormous. Secondly, the quality of food/type of food in the action station has been very bad lately. Please improve that quality asap. Also the portion sizes are a serious problem. Just please make more veg options. Just make the cafeteria more vegetarian friendly. The mushroom feta sandwich is horrible, please dec the amount of feta in that sandwich, genuinely. Pleaze help us have a filling amd happy lunch.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>66738</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Cadwalader</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>That’s incredible, we love that we’ve exceeded your expectations. What could we do to make your experience even better?</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veggie burger instead of beyond burger </t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I was charged for no.n alcoholic beer. It should be offered free as it’s done at other United Lounges in the country like IAD, Washington DC airport. </t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No basic protein options.  If i just wanted basic ham or chicken it was available instead the chicken dish had olives and random stuff in it.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>44528</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Kirkland &amp; Ellis LLP Café</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>You said variety could be improved. In what areas would you like to see variety improve?  Select up to three - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Food is particularly poor on Mondays and Fridays. The food is often bland, unappetising and repetitive. </t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>58007</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>UA Newark NTA</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your staff watched us try to scan over and over and just starred at us without a care in the world and was useless. </t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>You said cleanliness could be improved. In what areas would you like to see cleanliness improve? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dining surfaces </t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Busy lounge but some tables were not cleaned before another guest sat down.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45578</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>The macaroni was not appetizing; after two delayed flights :-(</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>58025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>UA Chicago Polaris</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45577</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>In what areas were you satisfied with the staff friendliness? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Daybeds and showers</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>58025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>UA Chicago Polaris</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45577</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>More Vegetarian options, having an iron for those who take a shower, especially after long haul flights - which I do a lot as Premier 1K</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>58025</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>UA Chicago Polaris</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45577</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Entertainment - make available the movies form the plane</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>53079</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Latham &amp; Watkins</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
+(Select up to three) - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Always dine</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>You said staff friendliness could be improved. In what areas would you like to see staff friendliness improve? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Busy talking to each other. Sat at bay for 15 mins without anyone offering a beverage.  </t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omg worst Nashville Chicken I've ever had in my life please bring back Joe! It was dry and sauce less! Unbelievable!! I won't ne back down here for lunch for the rest of the week </t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>58039</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>320 Park Avenue Bistro</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Added chips with my sandwich order and they seem to be stale </t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If the 3-4 staff members I interacted with none were polite nor helpful.  Food selection was cold and old. </t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>6515</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Becton-Dickinson Cockeysville</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>That's incredible, we love when we have exceeded all of your expectations! What could we do to make your experience even better? (Optional)</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frie more chicken </t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dietary restrictions </t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>6515</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Becton-Dickinson Cockeysville</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Dirty smocks, No gloves</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>44528</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Kirkland &amp; Ellis LLP Café</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>You said variety could be improved. In what areas would you like to see variety improve?  Select up to three - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Increased entree options / hot food options. Way too much refrigerated and freezing cold food </t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>13424</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Becton-Dickinson Franklin Lake</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I was sad to hear the pizzas are thrown away at end of each day.  I would love to bring to a nonprofit or persons in need of food periodically.  Let me know if possible.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>59147</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>UA Newark Club C123</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Flies on pastries , bread and spread</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>58026</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>UA Chicago Club B18</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>What did you love about your experience? (Select up to three) - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There were no gluten free bread, oats for breakfast. There was no almond milk (staff said they don’t carry it), there was no dairy free yogurt. There was no alternative milks for cereal or coffee. For lunch, besides lettuce and soup-was no gluten free options to eat. </t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>59147</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>UA Newark Club C123</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>It's not like us to miss the mark. We would love to make this right. 
+Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">At the lounge l, I asked for Non alcoholic beer and I was made to pay $5.35 for that. This is totally unacceptable as I pay $595 for annual fee and have to pay for Non Alcoholic beer. Other Airports Washington DC (IAD) is on the house. United should have uniform offering Ms across the airports. </t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>58006</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>UA Newark Polaris</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
           <t>We are sorry your experience did not meet your expectations.
 Please provide us some additional insight to why you had a poor experience - Other - Text</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Food, appearance, bar offerings</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Lounge staff were in a group having a loud conversation near the quiet room.  Makes it difficult to relax when they talk so close to the quiet reserved rooms.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>58006</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>UA Newark Polaris</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45570</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>It's not like us to miss the mark. We would love to make this right. 
 Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It’s cold and outdated and not enough seats and nowhere to lay down. Lounges in other countries are much nicer. This lounge is average, nice, but doesn’t have a wow factor. Food options were sub par. Very crowded. Check out Qatar Airways lounges as an example of what could be possible in the USA with some imagination and will power. </t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>I never got the dining room waitlist text message. I confirm I provided the server the correct phone number. I almost lost my place in line. A handheld pager system would be great. Such as those used at fast casual restaurants like Panera</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>You said environment could be improved. In what areas would you like to see environment improve? Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It’s freezing in here. </t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>66738</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Cadwalader</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>We want to make sure your mobile experience is a good one. What could be improved about the mobile app ordering experience? - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Have a main category for sides. Prices are kind of high for certain things like a breakfast sandwich. Salad size is small compared to places near by. </t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>58027</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>UA Chicago Club B6</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>You said variety of food and beverage offerings could be improve. In what areas would you like to see variety improve? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>bring back Budweiser/ Michelob. The amount we pay, the least you could do is offer Bud or Mich Ultra</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>44783</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Northwestern Kellogg Global Hub</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">They are having some issues attending to many people at coffee shop </t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>66738</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Cadwalader</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Already wrote what happened on the previous screen. </t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>66738</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Cadwalader</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I ordered the black bean burger because it was the special but it was not even a burger it was a bunch of mush the only covered half the bun it was definitely not worth it. I had the impossible burger yesterday that was very good and definitely worth it. </t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>You said staff friendliness could be improved. In what areas would you like to see staff friendliness improve? Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Didn’t really talk or greet me. </t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>64203</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>IMC Chicago</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Why are core powers no longer stocked on floor 41 in the morning? They seem to only be stocked during trading hours now, which makes it unreasonable for most of the company to ever get one.</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>44783</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Northwestern Kellogg Global Hub</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>45580</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>lack of variety, excessive prices</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>45580</v>
-      </c>
-      <c r="E85" t="inlineStr">
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>58007</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>UA Newark NTA</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>It's not like us to miss the mark. We would love to make this right. 
 Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I was charged for no.n alcoholic beer. It should be offered free as it’s done at other United Lounges in the country like IAD, Washington DC airport. </t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">United is woefully lacking when compared to the competitors (delta and American). It is now a regular argument in our house over which airline we use (American vs United- we have status and lounge access with both) with me pushing for American bc the lounges are far and away better at being able to accommodate gf options (a common dietary need at this point). We have flown all over the country as well as international with United at this point and I have never once been to a lounge where I left even somewhat satisfied. I will be continuing to push us towards American or Delta in the future. </t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>66738</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Cadwalader</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>45580</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>That’s incredible, we love that we’ve exceeded your expectations. What could we do to make your experience even better?</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veggie burger instead of beyond burger </t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>We are sorry your experience did not meet your expectations.
+Please provide us some additional insight to why you had a poor experience - Other - Text</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Disaster! No place to seat, queues everywhere.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>You said environment could be improved. In what areas would you like to see environment improve? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Too many people now.  It no longer feels exclusive, at all.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>58008</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>UA Newark Club C74</t>
         </is>
       </c>
-      <c r="D87" s="2" t="n">
-        <v>45580</v>
-      </c>
-      <c r="E87" t="inlineStr">
+      <c r="D115" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>As a frequent business traveler, the “club” used to be a place I could go to get some work done or relax a bit during a hectic travel schedule.  Now there are so many people in the clubs, including families with little children.  People taking free food and stuffing it in their bags.  Lots of noise and sometimes almost no seating.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>58007</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>UA Newark NTA</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>We are sorry your experience did not meet your expectations.
+Please provide us some additional insight to why you had a poor experience - Other - Text</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>The incredibly disappointing lack of gf options, the inconsistent allergen labels, and the staff (including managers) who are clearly untrained in this area.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>53079</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Latham &amp; Watkins</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+(Select up to three) - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consistent with my first answer, I would suggest to prepare coffee when order and not have it ready ahead of time. </t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>58008</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>UA Newark Club C74</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>In what areas were you satisfied with the staff friendliness? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Busing personal </t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>26831</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>AstraZeneca Gaithersburg</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>You said variety could be improved. In what areas would you like to see variety improve?  Select up to three - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You barely offer protein. Some days there is not protein at all,, not even on the entree booth. A diet cannot be based on cabs solely. </t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>65270</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Mayer Brown Café NY</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Buffet design</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>58006</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>UA Newark Polaris</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>It's not like us to miss the mark. We would love to make this right. 
 Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>No basic protein options.  If i just wanted basic ham or chicken it was available instead the chicken dish had olives and random stuff in it.</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I was just appointed that they weren't any potato chips or ice cream available at the buffet pretzels etc snacks</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>MasterCard NY</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I ordered a chicken sandwich from the grill, the chicken was 2in in diameter and was the sorriest thing I've ever seen.   99% of the time the food in the cafe is fantastic.. I'm assuming this was just a runt of the chicken litter.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1049</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Cleary Gottlieb - NYC</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>45580</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Please make the action station more vegetarian friendly, please try keeping a veg protein/veg meal option everyday. The number of vegan/vegetarian people have this complaint is enormous. Secondly, the quality of food/type of food in the action station has been very bad lately. Please improve that quality asap. Also the portion sizes are a serious problem. Just please make more veg options. Just make the cafeteria more vegetarian friendly. The mushroom feta sandwich is horrible, please dec the amount of feta in that sandwich, genuinely. Pleaze help us have a filling amd happy lunch.</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>You said cleanliness could be improved. In what areas would you like to see cleanliness improve? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dining surfaces </t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>65270</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Mayer Brown Café NY</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>You said dietary accommodations could be improved. Of the below dietary accommodations, which offerings could be improved? Select all that apply - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Dairy allergy</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>44528</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Kirkland &amp; Ellis LLP Café</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>You said variety could be improved. In what areas would you like to see variety improve?  Select up to three - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Food is particularly poor on Mondays and Fridays. The food is often bland, unappetising and repetitive. </t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>65270</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Mayer Brown Café NY</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">menu accuracy </t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>65270</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Mayer Brown Café NY</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Dishes are very hard to reach</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>53079</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Latham &amp; Watkins</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+(Select up to three) - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>The weekly free deli special isn’t often available to order in the app :(</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>58007</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>UA Newark NTA</t>
         </is>
       </c>
-      <c r="D91" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="E91" t="inlineStr">
+      <c r="D127" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Availability of the diet beverages in the soda machine. I was most looking forward to that </t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>58007</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>UA Newark NTA</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>It's not like us to miss the mark. We would love to make this right. 
 Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Your staff watched us try to scan over and over and just starred at us without a care in the world and was useless. </t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Busy lounge but some tables were not cleaned before another guest sat down.</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>45578</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>The macaroni was not appetizing; after two delayed flights :-(</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>45577</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>More Vegetarian options, having an iron for those who take a shower, especially after long haul flights - which I do a lot as Premier 1K</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>45577</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>In what areas were you satisfied with the staff friendliness? Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Daybeds and showers</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>58025</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>UA Chicago Polaris</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>45577</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Entertainment - make available the movies form the plane</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>53079</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Latham &amp; Watkins</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>45575</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
-(Select up to three) - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Always dine</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>45574</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Omg worst Nashville Chicken I've ever had in my life please bring back Joe! It was dry and sauce less! Unbelievable!! I won't ne back down here for lunch for the rest of the week </t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>45574</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>You said staff friendliness could be improved. In what areas would you like to see staff friendliness improve? Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Busy talking to each other. Sat at bay for 15 mins without anyone offering a beverage.  </t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>58039</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>320 Park Avenue Bistro</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>45574</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Added chips with my sandwich order and they seem to be stale </t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>45574</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If the 3-4 staff members I interacted with none were polite nor helpful.  Food selection was cold and old. </t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>6515</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Becton-Dickinson Cockeysville</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="n">
-        <v>45573</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Dirty smocks, No gloves</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>6515</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Becton-Dickinson Cockeysville</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>45573</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>That's incredible, we love when we have exceeded all of your expectations! What could we do to make your experience even better? (Optional)</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frie more chicken </t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>45573</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dietary restrictions </t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>13424</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Becton-Dickinson Franklin Lake</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>I was sad to hear the pizzas are thrown away at end of each day.  I would love to bring to a nonprofit or persons in need of food periodically.  Let me know if possible.</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>44528</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Kirkland &amp; Ellis LLP Café</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>You said variety could be improved. In what areas would you like to see variety improve?  Select up to three - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Increased entree options / hot food options. Way too much refrigerated and freezing cold food </t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>59147</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>UA Newark Club C123</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Flies on pastries , bread and spread</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>59147</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>UA Newark Club C123</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>45571</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">At the lounge l, I asked for Non alcoholic beer and I was made to pay $5.35 for that. This is totally unacceptable as I pay $595 for annual fee and have to pay for Non Alcoholic beer. Other Airports Washington DC (IAD) is on the house. United should have uniform offering Ms across the airports. </t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>58026</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>UA Chicago Club B18</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>45571</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>What did you love about your experience? (Select up to three) - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There were no gluten free bread, oats for breakfast. There was no almond milk (staff said they don’t carry it), there was no dairy free yogurt. There was no alternative milks for cereal or coffee. For lunch, besides lettuce and soup-was no gluten free options to eat. </t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>58006</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>UA Newark Polaris</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>45571</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>We are sorry your experience did not meet your expectations.
-Please provide us some additional insight to why you had a poor experience - Other - Text</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Lounge staff were in a group having a loud conversation near the quiet room.  Makes it difficult to relax when they talk so close to the quiet reserved rooms.</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>58006</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>UA Newark Polaris</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>45570</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I never got the dining room waitlist text message. I confirm I provided the server the correct phone number. I almost lost my place in line. A handheld pager system would be great. Such as those used at fast casual restaurants like Panera</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>45569</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>You said environment could be improved. In what areas would you like to see environment improve? Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Too many people now.  It no longer feels exclusive, at all.</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>58007</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>UA Newark NTA</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>45569</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>We are sorry your experience did not meet your expectations.
-Please provide us some additional insight to why you had a poor experience - Other - Text</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>The incredibly disappointing lack of gf options, the inconsistent allergen labels, and the staff (including managers) who are clearly untrained in this area.</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>58007</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>UA Newark NTA</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>45569</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">United is woefully lacking when compared to the competitors (delta and American). It is now a regular argument in our house over which airline we use (American vs United- we have status and lounge access with both) with me pushing for American bc the lounges are far and away better at being able to accommodate gf options (a common dietary need at this point). We have flown all over the country as well as international with United at this point and I have never once been to a lounge where I left even somewhat satisfied. I will be continuing to push us towards American or Delta in the future. </t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>45569</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>We are sorry your experience did not meet your expectations.
-Please provide us some additional insight to why you had a poor experience - Other - Text</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Disaster! No place to seat, queues everywhere.</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>45569</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>As a frequent business traveler, the “club” used to be a place I could go to get some work done or relax a bit during a hectic travel schedule.  Now there are so many people in the clubs, including families with little children.  People taking free food and stuffing it in their bags.  Lots of noise and sometimes almost no seating.</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>53079</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Latham &amp; Watkins</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>45568</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consistent with my first answer, I would suggest to prepare coffee when order and not have it ready ahead of time. </t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>58008</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>UA Newark Club C74</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>45568</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>In what areas were you satisfied with the staff friendliness? Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Busing personal </t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>26831</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>AstraZeneca Gaithersburg</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>45568</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>You said variety could be improved. In what areas would you like to see variety improve?  Select up to three - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You barely offer protein. Some days there is not protein at all,, not even on the entree booth. A diet cannot be based on cabs solely. </t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>65270</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Mayer Brown Café NY</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>45567</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Buffet design</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>65270</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Mayer Brown Café NY</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>45567</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>You said dietary accommodations could be improved. Of the below dietary accommodations, which offerings could be improved? Select all that apply - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Dairy allergy</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>1185</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>MasterCard NY</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>45567</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I ordered a chicken sandwich from the grill, the chicken was 2in in diameter and was the sorriest thing I've ever seen.   99% of the time the food in the cafe is fantastic.. I'm assuming this was just a runt of the chicken litter.</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>58006</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>UA Newark Polaris</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>45567</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I was just appointed that they weren't any potato chips or ice cream available at the buffet pretzels etc snacks</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>65270</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Mayer Brown Café NY</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>45567</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">menu accuracy </t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>65270</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Mayer Brown Café NY</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>45567</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Dishes are very hard to reach</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>53079</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Latham &amp; Watkins</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>The weekly free deli special isn’t often available to order in the app :(</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2316</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Paul Weiss Rifkind Wharton &amp; Garrison</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>That's incredible, we love when we have exceeded all of your expectations! What could we do to make your experience even better? (Optional)</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Less tomato options. </t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>58007</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>UA Newark NTA</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>What could have made your lounge experience even better? Select up to three. - Other, please specify: - Text</t>
-        </is>
-      </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Availability of the diet beverages in the soda machine. I was most looking forward to that </t>
+          <t xml:space="preserve">I was upset to realize that the soda machine was out of Diet Coke and diet dr. Pepper </t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -8304,12 +8305,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>58007</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>UA Newark NTA</t>
+          <t>Paul Weiss Rifkind Wharton &amp; Garrison</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
@@ -8317,13 +8318,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>It's not like us to miss the mark. We would love to make this right. 
-Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>That's incredible, we love when we have exceeded all of your expectations! What could we do to make your experience even better? (Optional)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was upset to realize that the soda machine was out of Diet Coke and diet dr. Pepper </t>
+          <t xml:space="preserve">Less tomato options. </t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
